--- a/Карта регистров 26.08.xlsx
+++ b/Карта регистров 26.08.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PF\Desktop\MT-10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\MT-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E15227F-06B8-411D-A9EF-02FF487DF406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCBC05C-C8D2-4929-95DA-62A9DE37C436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="3870" windowWidth="21600" windowHeight="11295" xr2:uid="{05F9FC53-DAF0-4F33-85D6-9C037B776003}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{05F9FC53-DAF0-4F33-85D6-9C037B776003}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="51">
   <si>
     <t>Параметр</t>
   </si>
@@ -178,6 +178,15 @@
   </si>
   <si>
     <t>0x20</t>
+  </si>
+  <si>
+    <t>Итог</t>
+  </si>
+  <si>
+    <t>0x021</t>
+  </si>
+  <si>
+    <t>11 + 24</t>
   </si>
 </sst>
 </file>
@@ -302,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -337,6 +346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -653,21 +663,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9344DA9-FBC0-4D34-B285-68F7522FF936}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="58.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,7 +703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -719,7 +729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -745,7 +755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -771,7 +781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -797,7 +807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
@@ -823,7 +833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -849,7 +859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -875,7 +885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -901,7 +911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
@@ -927,7 +937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -953,7 +963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
@@ -979,7 +989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -1005,7 +1015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>28</v>
       </c>
@@ -1031,7 +1041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -1057,7 +1067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>8</v>
       </c>
@@ -1083,7 +1093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>9</v>
       </c>
@@ -1109,7 +1119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
@@ -1135,7 +1145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
@@ -1161,7 +1171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>31</v>
       </c>
@@ -1187,7 +1197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
@@ -1213,7 +1223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>33</v>
       </c>
@@ -1239,7 +1249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>34</v>
       </c>
@@ -1265,96 +1275,106 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+    <row r="24" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="1">
+        <v>33</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="13"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D43" s="1"/>
     </row>
   </sheetData>

--- a/Карта регистров 26.08.xlsx
+++ b/Карта регистров 26.08.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\MT-10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PF\Desktop\MT-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCBC05C-C8D2-4929-95DA-62A9DE37C436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAEE101-035C-45A0-9FE4-41B50BEBBB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{05F9FC53-DAF0-4F33-85D6-9C037B776003}"/>
+    <workbookView xWindow="2475" yWindow="3870" windowWidth="21600" windowHeight="11295" xr2:uid="{05F9FC53-DAF0-4F33-85D6-9C037B776003}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -663,21 +663,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9344DA9-FBC0-4D34-B285-68F7522FF936}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,7 +703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -729,7 +729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -781,7 +781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -807,7 +807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
@@ -833,7 +833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -859,7 +859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -885,7 +885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -911,7 +911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
@@ -937,7 +937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -963,7 +963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
@@ -989,7 +989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>28</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>8</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>9</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>31</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>33</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>34</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>48</v>
       </c>
@@ -1291,90 +1291,90 @@
       <c r="E24" s="13"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
     </row>
   </sheetData>

--- a/Карта регистров 26.08.xlsx
+++ b/Карта регистров 26.08.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PF\Desktop\MT-10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n.nesbytov\Desktop\MT-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAEE101-035C-45A0-9FE4-41B50BEBBB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0557F69-CFA1-448A-8F02-C4E634E86828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="3870" windowWidth="21600" windowHeight="11295" xr2:uid="{05F9FC53-DAF0-4F33-85D6-9C037B776003}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{05F9FC53-DAF0-4F33-85D6-9C037B776003}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -186,7 +186,7 @@
     <t>0x021</t>
   </si>
   <si>
-    <t>11 + 24</t>
+    <t>11W + 22R</t>
   </si>
 </sst>
 </file>
@@ -311,12 +311,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -346,7 +343,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -661,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9344DA9-FBC0-4D34-B285-68F7522FF936}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A2:A23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +673,7 @@
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,580 +699,607 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="4">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="3">
         <v>16</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="H2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1">
         <v>7</v>
       </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="1">
         <v>16</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="H3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="1">
         <v>16</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="H4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="1">
         <v>16</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="H5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="1">
         <v>16</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1">
         <v>16</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>8</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="1">
         <v>16</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>3</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="F9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="1">
         <v>16</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>9</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="11">
-        <v>2</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="11">
+      <c r="D10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="10">
         <v>16</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="H10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>11</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="4">
-        <v>2</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="D11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3">
         <v>3</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="G11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>13</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
         <v>3</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="G12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>15</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
         <v>3</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="G13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>17</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="D14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
         <v>3</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="G14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>19</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
         <v>3</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="G15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>21</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="D16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
         <v>3</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="7" t="s">
+      <c r="G16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>23</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="D17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
         <v>3</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="7" t="s">
+      <c r="G17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>25</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>0</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>3</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="7" t="s">
+      <c r="G18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>25</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>3</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="7" t="s">
+      <c r="G19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>26</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="2">
-        <v>2</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="D20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
         <v>3</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="7" t="s">
+      <c r="G20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>28</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2</v>
-      </c>
-      <c r="F21" s="2">
+      <c r="D21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
         <v>3</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="7" t="s">
+      <c r="G21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>30</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2</v>
-      </c>
-      <c r="F22" s="13">
+      <c r="D22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
         <v>3</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" s="7" t="s">
+      <c r="G22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>32</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="11">
-        <v>2</v>
-      </c>
-      <c r="F23" s="11">
+      <c r="D23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="10">
+        <v>2</v>
+      </c>
+      <c r="F23" s="10">
         <v>3</v>
       </c>
-      <c r="G23" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" s="12" t="s">
+      <c r="G23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B24" s="1">
@@ -1288,7 +1311,7 @@
       <c r="D24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="13"/>
+      <c r="E24" s="1"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">

--- a/Карта регистров 26.08.xlsx
+++ b/Карта регистров 26.08.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n.nesbytov\Desktop\MT-10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\MT-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0557F69-CFA1-448A-8F02-C4E634E86828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB6C4FD-4656-4795-9577-EB02E79145D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{05F9FC53-DAF0-4F33-85D6-9C037B776003}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{05F9FC53-DAF0-4F33-85D6-9C037B776003}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>Отправка на частотник флага ручного режима</t>
   </si>
   <si>
-    <t xml:space="preserve">Направление движения валков </t>
-  </si>
-  <si>
     <t>Скорость расхождения валков, мм/c</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>11W + 22R</t>
+  </si>
+  <si>
+    <t>Направление движения правых рольгангов</t>
   </si>
 </sst>
 </file>
@@ -659,35 +659,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9344DA9-FBC0-4D34-B285-68F7522FF936}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="58.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -699,7 +699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="3">
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="3">
         <v>16</v>
@@ -728,7 +728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -736,16 +736,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="1">
         <v>16</v>
@@ -757,7 +757,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -765,16 +765,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1">
         <v>16</v>
@@ -786,7 +786,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -794,16 +794,16 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="1">
         <v>16</v>
@@ -815,7 +815,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -823,7 +823,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="1">
         <v>16</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -852,7 +852,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -861,19 +861,19 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="1">
         <v>16</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -881,7 +881,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -890,27 +890,27 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1">
         <v>16</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -919,36 +919,36 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" s="1">
         <v>16</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="10">
         <v>9</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="10">
         <v>2</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="10">
         <v>16</v>
@@ -960,18 +960,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3">
         <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="3">
         <v>2</v>
@@ -980,24 +980,24 @@
         <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1">
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -1006,24 +1006,24 @@
         <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1">
         <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -1032,24 +1032,24 @@
         <v>3</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1">
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -1058,13 +1058,13 @@
         <v>3</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>6</v>
       </c>
@@ -1072,10 +1072,10 @@
         <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -1084,13 +1084,13 @@
         <v>3</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
@@ -1098,10 +1098,10 @@
         <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -1110,13 +1110,13 @@
         <v>3</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
@@ -1124,10 +1124,10 @@
         <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="1">
         <v>2</v>
@@ -1136,21 +1136,21 @@
         <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1">
         <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -1162,21 +1162,21 @@
         <v>3</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1">
         <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -1188,24 +1188,24 @@
         <v>3</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1">
         <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
@@ -1214,24 +1214,24 @@
         <v>3</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1">
         <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
@@ -1240,24 +1240,24 @@
         <v>3</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1">
         <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="1">
         <v>2</v>
@@ -1266,24 +1266,24 @@
         <v>3</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="10">
         <v>32</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" s="10">
         <v>2</v>
@@ -1292,112 +1292,112 @@
         <v>3</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1">
         <v>33</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D43" s="1"/>
     </row>
   </sheetData>
